--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999987285726843</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990281990033747</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999788398994</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999998675528704</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999109042926</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G2" t="n">
-        <v>1.186821589954921e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009071335732160592</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I2" t="n">
-        <v>1.731745810793909e-08</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>1.770274760214315e-07</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.717246706468532e-08</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>6.517436598896271e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001089413415538344</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000030514255576</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001135792000034472</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P2" t="n">
-        <v>77.28846351391398</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.760359135619</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_1</t>
+          <t>model_6_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999988719665571</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990214470336679</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999209035471</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999993552406085</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999995752490617</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G3" t="n">
-        <v>1.052969704011587e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000913436240560121</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I3" t="n">
-        <v>6.473265606899848e-08</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J3" t="n">
-        <v>8.617787948289034e-07</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>4.63255725448951e-07</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>7.164408254255807e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001026143120627716</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000027072802629</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001069828157681932</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P3" t="n">
-        <v>77.52779219269087</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.9996878143959</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_2</t>
+          <t>model_6_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999986921224094</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990123316448222</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999997610507351</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999978040849646</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999985648070248</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G4" t="n">
-        <v>1.220846321568009e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000921945055928325</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I4" t="n">
-        <v>1.955564379323434e-07</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.935037530867255e-06</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>1.565296984399799e-06</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>8.489530106905987e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001104919147072766</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000031389062173</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001151957842661603</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P4" t="n">
-        <v>77.2319324670375</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.7038280887425</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_3</t>
+          <t>model_6_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999970769204779</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989918937426034</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999990100389615</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999990480699367</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999937956481423</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G5" t="n">
-        <v>2.728566425500661e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009410229405292837</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I5" t="n">
-        <v>8.10185603151773e-07</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>1.272339966506989e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>6.766792634110832e-06</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001219806597253721</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001651837287840622</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00007015390853</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001722159420958574</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P5" t="n">
-        <v>75.62346841110966</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.0953640328147</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_4</t>
+          <t>model_6_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999951466025037</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989761986579648</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999981740438642</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999820861987324</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999883382811962</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G6" t="n">
-        <v>4.530433523295817e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009556736131047502</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I6" t="n">
-        <v>1.494365248500976e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>2.394340318005981e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>1.271888421428039e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001464995999819296</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002128481506449097</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000116481539912</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002219095370742766</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P6" t="n">
-        <v>74.60938584508307</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.0812814667881</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_5</t>
+          <t>model_6_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999922371403169</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989579278024594</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999968876432327</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999697964542502</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999803251254272</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G7" t="n">
-        <v>7.246288763935896e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009727286547212368</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I7" t="n">
-        <v>2.547157460532366e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J7" t="n">
-        <v>4.036974970041058e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.145845358047147e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001747952891965349</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002691893156114465</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000186308632394</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002806492620757287</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P7" t="n">
-        <v>73.67004222958002</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.141937851285</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_6</t>
+          <t>model_6_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999903653434135</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989469395922637</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999960790520421</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999617703875343</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999975103797155</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G8" t="n">
-        <v>8.993529011035934e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009829856666122602</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I8" t="n">
-        <v>3.208909707303332e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J8" t="n">
-        <v>5.109730821574892e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.715310896152612e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001884563304450991</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002998921307909885</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000231231758077</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003126591596610529</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P8" t="n">
-        <v>73.23801047601084</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.7099060977159</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_7</t>
+          <t>model_6_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999831790892523</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989157901985332</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999929065377049</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999321797774032</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999557819270144</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G9" t="n">
-        <v>1.570158183031743e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001012062258359355</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8053002135399e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J9" t="n">
-        <v>9.064781445009686e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>4.822655733181837e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002375925846356966</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003962522155183165</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000403701857945</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004131214926880973</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P9" t="n">
-        <v>72.12349819432382</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.5953938160288</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_8</t>
+          <t>model_6_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999982053990576</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989099919217723</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999924721595278</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999272901923963</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.99995262287123</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6751812058535e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001017474695200663</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I10" t="n">
-        <v>6.160795967112723e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J10" t="n">
-        <v>9.718318365811346e-05</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>5.16719898126131e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002417092616261769</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004092897758133594</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000430704226175</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004267140889163706</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P10" t="n">
-        <v>71.99400824589083</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4659038675958</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_9</t>
+          <t>model_6_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999794159606022</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988990675352417</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999913453783942</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999916263388872</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999454434670781</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G11" t="n">
-        <v>1.921429724293829e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001027672130501843</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I11" t="n">
-        <v>7.082955342004476e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001119214962377831</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>5.950222578989377e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002543700281715944</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004383411598622503</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000494016945546</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004570022505288784</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P11" t="n">
-        <v>71.71971181594731</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.1916074376523</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_10</t>
+          <t>model_6_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999773508179218</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988906140852088</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999904973046755</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999076156415814</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999939826392064</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G12" t="n">
-        <v>2.114201728581286e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001035563055043899</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I12" t="n">
-        <v>7.777020149194977e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001234799866377122</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>6.562850339345359e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002631187835643439</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00459804494169129</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000543580369876</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004793793234124279</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P12" t="n">
-        <v>71.52849631402552</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.0003919357305</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_11</t>
+          <t>model_6_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999763593361932</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988860835488836</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999901093110433</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999033939375389</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999370939817636</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2067521958467e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001039792111835935</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I13" t="n">
-        <v>8.094554721551897e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001291226729936237</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>6.860861385758781e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002661641307476926</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004697608110354353</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000567375931363</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004897595013001501</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P13" t="n">
-        <v>71.44280724998681</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9147028716918</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999735847134238</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988759515534016</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999889552431288</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998918898501599</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999296118853352</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46575105218472e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00104924988487528</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I14" t="n">
-        <v>9.039045638884605e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001444989182820042</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>7.676898196044442e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002779743430903766</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004965632942722126</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000633966877829</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00517703021737106</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P14" t="n">
-        <v>71.22085803479681</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.6927536565018</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_13</t>
+          <t>model_6_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999713648460542</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.99886789988674</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999880340505883</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998826847899782</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999236258847649</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G15" t="n">
-        <v>2.67296592704548e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001056765762276575</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I15" t="n">
-        <v>9.792950999766009e-06</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001568023073803511</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>8.329762919005855e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002866647540817573</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005170073429890024</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000687243694699</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005390174159327845</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P15" t="n">
-        <v>71.05947354995662</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.5313691716616</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_14</t>
+          <t>model_6_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999970384146956</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988639409675669</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999876432808468</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998785749221307</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999209609602692</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G16" t="n">
-        <v>2.764509883078949e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001060461239548161</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I16" t="n">
-        <v>1.011275754416228e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000162295514624284</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>8.620413608422314e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002895482898830089</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005257860670537922</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000710780473055</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005481698684554765</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P16" t="n">
-        <v>70.99212420636772</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.4640198280727</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_15</t>
+          <t>model_6_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999680565625604</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998855917687018</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999866766458444</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998689522749088</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999147020346976</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G17" t="n">
-        <v>2.981779669506085e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001067950619759226</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I17" t="n">
-        <v>1.090385308426784e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000175157046280919</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>9.303044968259342e-05</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002983909550467314</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005460567433432249</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000766642498551</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00569303509400635</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P17" t="n">
-        <v>70.84081027635267</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.3127058980577</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_16</t>
+          <t>model_6_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999655215396531</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988477004024141</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999985627030231</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998584889169502</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999078968321605</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G18" t="n">
-        <v>3.218412930435858e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001075621094239886</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I18" t="n">
-        <v>1.176286008135358e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001891422632920648</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001004525616867092</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003078347228897317</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005673105789984758</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000827483048325</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00591462164841235</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P18" t="n">
-        <v>70.68807421133039</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.1599698330354</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_17</t>
+          <t>model_6_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999648870964642</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988451524990665</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999853746034427</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998558384026955</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999061780279469</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G19" t="n">
-        <v>3.27763541723299e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001077999450174815</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I19" t="n">
-        <v>1.196944654461853e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000192684913480391</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001023271800125048</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003092982728157728</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005725063682818725</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000842709684858</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005968791496311925</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P19" t="n">
-        <v>70.65160642386897</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.123502045574</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_18</t>
+          <t>model_6_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999636398059407</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988408800762982</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999848766748847</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999850669892792</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999028242181793</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G20" t="n">
-        <v>3.394064512623215e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00108198756929136</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I20" t="n">
-        <v>1.237695202560177e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001995930908465588</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001059850214360803</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003133871253450822</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005825860033182409</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000872644657423</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006073878955987802</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P20" t="n">
-        <v>70.58179458098928</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.0536902026943</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_19</t>
+          <t>model_6_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999629615626148</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988383936744811</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999846064034782</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998478522208738</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999900996293391</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G21" t="n">
-        <v>3.457375549956515e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001084308516247117</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I21" t="n">
-        <v>1.259814255124598e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002033591622548296</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001079786524030378</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003152916096040701</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005879945195285849</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000888922497245</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006130266635413705</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P21" t="n">
-        <v>70.54483135057862</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.0167269722836</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_20</t>
+          <t>model_6_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999610543480744</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988324138380054</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999838085933968</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999839999500086</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998958852273881</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G22" t="n">
-        <v>3.635405655603331e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001089890431112819</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I22" t="n">
-        <v>1.325107152208077e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002138550283793554</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001135530499507181</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003220821808311342</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006029432523549236</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000934695646215</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006286117948722692</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P22" t="n">
-        <v>70.44440952614281</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.9163051478478</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_21</t>
+          <t>model_6_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999603662823113</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988300276281763</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999983528342929</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998371530335292</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998940359147186</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G23" t="n">
-        <v>3.699633574318535e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00109211785324569</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I23" t="n">
-        <v>1.348042892647431e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002176595864063157</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000115570007666395</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003240836018738583</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006082461322785814</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000951209224528</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006341404293727519</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P23" t="n">
-        <v>70.4093833683844</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q23" t="n">
-        <v>100.8812789900894</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_22</t>
+          <t>model_6_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999593082726711</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988266338437873</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999830880759309</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998327918332033</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998911984160065</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G24" t="n">
-        <v>3.79839413011015e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001095285802002904</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I24" t="n">
-        <v>1.384074409997722e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002234887220650083</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001186647330824928</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003275076276962501</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006163111332849788</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000976601455894</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006425487741688453</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P24" t="n">
-        <v>70.35669416979349</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.8285897914985</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_23</t>
+          <t>model_6_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999590063437939</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988254398806027</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999982973278805</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998315340548481</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998903846446184</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G25" t="n">
-        <v>3.826577865491766e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001096400314226816</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I25" t="n">
-        <v>1.393469424052958e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002251698557238302</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001195522749821799</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003280902957603883</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006185933935544225</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000983847748947</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006449281949828892</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P25" t="n">
-        <v>70.34190913779625</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.8138047595013</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999584263257154</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988235034964963</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999827325282933</v>
+        <v>0.999998685648971</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998291416768094</v>
+        <v>0.9999999999999448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998888283935841</v>
+        <v>0.999999527764742</v>
       </c>
       <c r="G26" t="n">
-        <v>3.880720007124451e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001098207843792741</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I26" t="n">
-        <v>1.41317248215704e-05</v>
+        <v>9.346684710893685e-07</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002283674836916131</v>
+        <v>6.78732299646294e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001212496042565917</v>
+        <v>4.673342694812993e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003298098760554656</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006229542525037012</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00099776818283</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006494747047258612</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P26" t="n">
-        <v>70.31380951940861</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.7857051411136</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
   </sheetData>
